--- a/data/processed/xgboost_reduced_model_metrics.xlsx
+++ b/data/processed/xgboost_reduced_model_metrics.xlsx
@@ -493,14 +493,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8414310327353804</v>
+        <v>0.8680396643783372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02877259246824482</v>
+        <v>0.0157324009208808</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.8616021659499921, 0.8557252905078991, 0.8406349206349206, 0.8222222222222222, 0.8627783669141039, 0.8260869565217391, 0.8407389711737537, 0.8421230942970073, 0.8594202898550726, 0.8040296924708378]</t>
+          <t>[0.8700980392156863, 0.868935097668557, 0.8681159420289856, 0.8529411764705882, 0.869296833064949, 0.8509930220075148, 0.855072463768116, 0.8385049580472921, 0.8679633867276888, 0.8840579710144928]</t>
         </is>
       </c>
     </row>
@@ -526,14 +526,14 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8352657004830918</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02463768115942022</v>
+        <v>0.01561167945439046</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.8695652173913043, 0.8478260869565217, 0.8222222222222222, 0.8222222222222222, 0.8444444444444444, 0.8260869565217391, 0.8478260869565217, 0.8260869565217391, 0.8695652173913043, 0.8043478260869565]</t>
+          <t>[0.8676470588235294, 0.855072463768116, 0.855072463768116, 0.8529411764705882, 0.8695652173913043, 0.8529411764705882, 0.855072463768116, 0.8405797101449275, 0.8695652173913043, 0.8840579710144928]</t>
         </is>
       </c>
     </row>
@@ -559,14 +559,14 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8513513513513513</v>
+        <v>0.9048442534908701</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02687144381223328</v>
+        <v>0.005545112781954797</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.847972972972973, 0.8256578947368421, 0.8986486486486487, 0.7635135135135135, 0.8885135135135135, 0.8125, 0.8558558558558559, 0.8588588588588588, 0.847972972972973, 0.8547297297297297]</t>
+          <t>[0.9273684210526315, 0.9, 0.9031578947368422, 0.9194414607948442, 0.9084210526315789, 0.8852631578947369, 0.9042105263157895, 0.9030612244897959, 0.9054779806659505, 0.9087003222341568]</t>
         </is>
       </c>
     </row>
@@ -592,14 +592,14 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8380544576196751</v>
+        <v>0.8587654828982304</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0259282704999434</v>
+        <v>0.01379339028942983</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.863129290617849, 0.8512872975277067, 0.8296296296296297, 0.8222222222222222, 0.8534387612223046, 0.8260869565217391, 0.843741765480896, 0.8323671497584542, 0.8619206880076445, 0.8057015448319795]</t>
+          <t>[0.8686616597471659, 0.8589544513457559, 0.8585765144507049, 0.8529411764705882, 0.8634143399867334, 0.8493343825824645, 0.855072463768116, 0.8393410132540567, 0.8685517381169555, 0.8840579710144928]</t>
         </is>
       </c>
     </row>
@@ -625,14 +625,14 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8078769057029926</v>
+        <v>0.817037467015322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02597406749260966</v>
+        <v>0.01282413995346432</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.8074534161490682, 0.8025210084033613, 0.7863894139886578, 0.7882529323573506, 0.808300395256917, 0.8269230769230771, 0.8260869565217391, 0.7945341614906832, 0.827273497754047, 0.8117588932806324]</t>
+          <t>[0.8120935330654, 0.7971014492753623, 0.8107585139318886, 0.8235294117647058, 0.8264617691154422, 0.8146684233640756, 0.8681945505474918, 0.8194065106665682, 0.804922935357718, 0.824045407636739]</t>
         </is>
       </c>
     </row>
@@ -658,14 +658,14 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8021739130434783</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01739130434782599</v>
+        <v>0.01102941176470584</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.8043478260869565, 0.8, 0.782608695652174, 0.782608695652174, 0.8, 0.8043478260869565, 0.8222222222222222, 0.782608695652174, 0.8260869565217391, 0.8043478260869565]</t>
+          <t>[0.8115942028985508, 0.7971014492753623, 0.8088235294117647, 0.8235294117647058, 0.8115942028985508, 0.8115942028985508, 0.855072463768116, 0.8115942028985508, 0.7971014492753623, 0.8235294117647058]</t>
         </is>
       </c>
     </row>
@@ -691,14 +691,14 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.877</v>
+        <v>0.8910195707070707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01150000000000007</v>
+        <v>0.01587902837902844</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.882, 0.878, 0.8742857142857142, 0.876, 0.8685714285714285, 0.8742857142857142, 0.8933333333333333, 0.8876190476190475, 0.8959999999999999, 0.8760000000000001]</t>
+          <t>[0.890625, 0.8897306397306397, 0.9074074074074073, 0.9056277056277056, 0.8914141414141413, 0.9030303030303031, 0.8813131313131313, 0.9097222222222222, 0.8888888888888888, 0.8800505050505051]</t>
         </is>
       </c>
     </row>
@@ -724,14 +724,14 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8014769168071714</v>
+        <v>0.8115147905499306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01778694950684767</v>
+        <v>0.01121040216081437</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.8023600681517005, 0.7975522692503824, 0.7830204216073781, 0.77921857784558, 0.8005937654626422, 0.8038852913968547, 0.8160597572362278, 0.782608695652174, 0.8250836120401338, 0.8046253469010175]</t>
+          <t>[0.8116734149217173, 0.7971014492753623, 0.8081999923256975, 0.8235294117647058, 0.8114353782013104, 0.8115942028985508, 0.8529194655643316, 0.8114353782013104, 0.7947603121516165, 0.8230678496333145]</t>
         </is>
       </c>
     </row>
@@ -757,14 +757,14 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.8647430830039526</v>
+        <v>0.8776353278421445</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02626278772378521</v>
+        <v>0.02355354768036888</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.8666290231507624, 0.8204404291360813, 0.8666666666666667, 0.8926282051282052, 0.8337941628264208, 0.8628571428571429, 0.8895993179880648, 0.8388888888888889, 0.8666666666666667, 0.8449488491048593]</t>
+          <t>[0.862486126526082, 0.876911530162304, 0.8681626928471249, 0.8783591255219849, 0.8529411764705882, 0.8962414397197006, 0.8783591255219849, 0.8622052610058607, 0.8904920458749538, 0.891475252939568]</t>
         </is>
       </c>
     </row>
@@ -790,14 +790,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02427536231884064</v>
+        <v>0.01449275362318847</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.8695652173913043, 0.8260869565217391, 0.8666666666666667, 0.8888888888888888, 0.8222222222222222, 0.8666666666666667, 0.8913043478260869, 0.8444444444444444, 0.8695652173913043, 0.8478260869565217]</t>
+          <t>[0.8529411764705882, 0.8823529411764706, 0.8695652173913043, 0.8840579710144928, 0.8529411764705882, 0.8970588235294118, 0.8840579710144928, 0.8695652173913043, 0.8823529411764706, 0.8840579710144928]</t>
         </is>
       </c>
     </row>
@@ -823,14 +823,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9188034188034188</v>
+        <v>0.8961038961038961</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04099821746880561</v>
+        <v>0.03259240759240767</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.9215686274509803, 0.8838383838383839, 0.9368686868686869, 0.9494949494949494, 0.9184149184149184, 0.9166666666666667, 0.9191919191919191, 0.881118881118881, 0.8787878787878788, 0.9387254901960784]</t>
+          <t>[0.8766233766233766, 0.8853146853146855, 0.9244755244755245, 0.9324675324675326, 0.8961038961038961, 0.9041958041958043, 0.8961038961038961, 0.8831168831168831, 0.8545454545454546, 0.9202797202797204]</t>
         </is>
       </c>
     </row>
@@ -856,14 +856,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8637414056531704</v>
+        <v>0.8764302059496567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02765087605451</v>
+        <v>0.02523296550889165</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.8660485933503835, 0.8213981244671781, 0.8666666666666667, 0.8902564102564102, 0.8262820512820512, 0.8614342179559572, 0.8899415963659961, 0.8367149758454108, 0.8666666666666667, 0.8459182349123945]</t>
+          <t>[0.8568316215375039, 0.8785014005602241, 0.8517279821627647, 0.8764302059496567, 0.8529411764705882, 0.8897290485192186, 0.8764302059496567, 0.8634705656021547, 0.8854652972300031, 0.8868491680085883]</t>
         </is>
       </c>
     </row>

--- a/data/processed/xgboost_reduced_model_metrics.xlsx
+++ b/data/processed/xgboost_reduced_model_metrics.xlsx
@@ -493,14 +493,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8680396643783372</v>
+        <v>0.8688663724895609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0157324009208808</v>
+        <v>0.02879423787352176</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.8700980392156863, 0.868935097668557, 0.8681159420289856, 0.8529411764705882, 0.869296833064949, 0.8509930220075148, 0.855072463768116, 0.8385049580472921, 0.8679633867276888, 0.8840579710144928]</t>
+          <t>[0.8817299495048856, 0.859903381642512, 0.8840579710144928, 0.8529411764705882, 0.869296833064949, 0.8684359119141727, 0.8520412996116321, 0.8891476880607315, 0.8840579710144928, 0.8494809688581315]</t>
         </is>
       </c>
     </row>
@@ -526,14 +526,14 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.855072463768116</v>
+        <v>0.8686061381074168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01561167945439046</v>
+        <v>0.02898550724637683</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.8676470588235294, 0.855072463768116, 0.855072463768116, 0.8529411764705882, 0.8695652173913043, 0.8529411764705882, 0.855072463768116, 0.8405797101449275, 0.8695652173913043, 0.8840579710144928]</t>
+          <t>[0.8840579710144928, 0.855072463768116, 0.8840579710144928, 0.8529411764705882, 0.8695652173913043, 0.8676470588235294, 0.855072463768116, 0.8840579710144928, 0.8840579710144928, 0.8529411764705882]</t>
         </is>
       </c>
     </row>
@@ -559,14 +559,14 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9048442534908701</v>
+        <v>0.9022556390977443</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005545112781954797</v>
+        <v>0.02407894736842109</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.9273684210526315, 0.9, 0.9031578947368422, 0.9194414607948442, 0.9084210526315789, 0.8852631578947369, 0.9042105263157895, 0.9030612244897959, 0.9054779806659505, 0.9087003222341568]</t>
+          <t>[0.9099999999999999, 0.9199999999999999, 0.9273684210526315, 0.9033297529538131, 0.8795918367346938, 0.8926315789473684, 0.88, 0.8957894736842105, 0.9210526315789473, 0.9011815252416756]</t>
         </is>
       </c>
     </row>
@@ -592,14 +592,14 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8587654828982304</v>
+        <v>0.8631018622576243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01379339028942983</v>
+        <v>0.03077080310893743</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.8686616597471659, 0.8589544513457559, 0.8585765144507049, 0.8529411764705882, 0.8634143399867334, 0.8493343825824645, 0.855072463768116, 0.8393410132540567, 0.8685517381169555, 0.8840579710144928]</t>
+          <t>[0.8819740456569101, 0.8524675570711376, 0.8840579710144928, 0.8529411764705882, 0.8634143399867334, 0.8627893845285151, 0.8527078565980168, 0.885773439810707, 0.8840579710144928, 0.8503267973856209]</t>
         </is>
       </c>
     </row>
@@ -625,14 +625,14 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.817037467015322</v>
+        <v>0.8193569155004072</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01282413995346432</v>
+        <v>0.01728497965360054</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.8120935330654, 0.7971014492753623, 0.8107585139318886, 0.8235294117647058, 0.8264617691154422, 0.8146684233640756, 0.8681945505474918, 0.8194065106665682, 0.804922935357718, 0.824045407636739]</t>
+          <t>[0.7954927425515661, 0.8120935330654, 0.8264617691154422, 0.838388480392157, 0.8252595155709341, 0.8412990196078431, 0.7989384070977998, 0.8078037904124862, 0.8146684233640756, 0.824045407636739]</t>
         </is>
       </c>
     </row>
@@ -658,14 +658,14 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8115942028985508</v>
+        <v>0.8175618073316283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01102941176470584</v>
+        <v>0.02280477408354642</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.8115942028985508, 0.7971014492753623, 0.8088235294117647, 0.8235294117647058, 0.8115942028985508, 0.8115942028985508, 0.855072463768116, 0.8115942028985508, 0.7971014492753623, 0.8235294117647058]</t>
+          <t>[0.7941176470588235, 0.8115942028985508, 0.8235294117647058, 0.8382352941176471, 0.8235294117647058, 0.8382352941176471, 0.7941176470588235, 0.7971014492753623, 0.8115942028985508, 0.8235294117647058]</t>
         </is>
       </c>
     </row>
@@ -691,14 +691,14 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8910195707070707</v>
+        <v>0.8937349687349687</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01587902837902844</v>
+        <v>0.005465367965368007</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.890625, 0.8897306397306397, 0.9074074074074073, 0.9056277056277056, 0.8914141414141413, 0.9030303030303031, 0.8813131313131313, 0.9097222222222222, 0.8888888888888888, 0.8800505050505051]</t>
+          <t>[0.8831168831168832, 0.8930976430976431, 0.8987012987012987, 0.9107744107744107, 0.8930976430976431, 0.9023569023569024, 0.8981481481481481, 0.8930976430976431, 0.8897306397306397, 0.8943722943722944]</t>
         </is>
       </c>
     </row>
@@ -724,14 +724,14 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8115147905499306</v>
+        <v>0.8173706322775158</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01121040216081437</v>
+        <v>0.02284277223735343</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.8116734149217173, 0.7971014492753623, 0.8081999923256975, 0.8235294117647058, 0.8114353782013104, 0.8115942028985508, 0.8529194655643316, 0.8114353782013104, 0.7947603121516165, 0.8230678496333145]</t>
+          <t>[0.7941176470588235, 0.8116734149217173, 0.8232230392156863, 0.8381301382958384, 0.8236822001527884, 0.8381303202656794, 0.7937611408199645, 0.7971014492753623, 0.8115942028985508, 0.8230678496333145]</t>
         </is>
       </c>
     </row>
@@ -757,14 +757,14 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.8776353278421445</v>
+        <v>0.8788566540399143</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02355354768036888</v>
+        <v>0.003317076484758541</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.862486126526082, 0.876911530162304, 0.8681626928471249, 0.8783591255219849, 0.8529411764705882, 0.8962414397197006, 0.8783591255219849, 0.8622052610058607, 0.8904920458749538, 0.891475252939568]</t>
+          <t>[0.8752630995901187, 0.8793541825578438, 0.8783591255219849, 0.9121591746499632, 0.8742066875059202, 0.8793541825578438, 0.8783591255219849, 0.8793541825578438, 0.8943937122347917, 0.8752630995901187]</t>
         </is>
       </c>
     </row>
@@ -790,14 +790,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01449275362318847</v>
+        <v>0.001705029838022232</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.8529411764705882, 0.8823529411764706, 0.8695652173913043, 0.8840579710144928, 0.8529411764705882, 0.8970588235294118, 0.8840579710144928, 0.8695652173913043, 0.8823529411764706, 0.8840579710144928]</t>
+          <t>[0.8823529411764706, 0.8840579710144928, 0.8840579710144928, 0.9130434782608695, 0.855072463768116, 0.8840579710144928, 0.8840579710144928, 0.8823529411764706, 0.8985507246376812, 0.8823529411764706]</t>
         </is>
       </c>
     </row>
@@ -823,14 +823,14 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.9032467532467533</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03259240759240767</v>
+        <v>0.0301448551448551</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.8766233766233766, 0.8853146853146855, 0.9244755244755245, 0.9324675324675326, 0.8961038961038961, 0.9041958041958043, 0.8961038961038961, 0.8831168831168831, 0.8545454545454546, 0.9202797202797204]</t>
+          <t>[0.8818181818181818, 0.8713286713286713, 0.9298701298701298, 0.9155844155844155, 0.912987012987013, 0.9202797202797203, 0.8937062937062937, 0.9090909090909092, 0.8974025974025974, 0.8769230769230769]</t>
         </is>
       </c>
     </row>
@@ -856,14 +856,14 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8764302059496567</v>
+        <v>0.8785320324221926</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02523296550889165</v>
+        <v>0.00623500428319379</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.8568316215375039, 0.8785014005602241, 0.8517279821627647, 0.8764302059496567, 0.8529411764705882, 0.8897290485192186, 0.8764302059496567, 0.8634705656021547, 0.8854652972300031, 0.8868491680085883]</t>
+          <t>[0.8737217374988273, 0.8806338588947284, 0.8764302059496567, 0.9073226544622426, 0.8613959529669126, 0.8806338588947284, 0.8764302059496567, 0.8806338588947284, 0.8938104399127871, 0.8737217374988273]</t>
         </is>
       </c>
     </row>
